--- a/src/main/resources/employees.xlsx
+++ b/src/main/resources/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>fgvbdfbg</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Vaqtincha</t>
+  </si>
+  <si>
+    <t>Sanjar</t>
+  </si>
+  <si>
+    <t>998129566</t>
+  </si>
+  <si>
+    <t>Toshkent shahri</t>
+  </si>
+  <si>
+    <t>Sergeli tumani</t>
+  </si>
+  <si>
+    <t>Sotuvchi ⚖️</t>
   </si>
 </sst>
 </file>
@@ -171,6 +186,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/employees.xlsx
+++ b/src/main/resources/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>fgvbdfbg</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>Sotuvchi ⚖️</t>
+  </si>
+  <si>
+    <t>Shoxruh</t>
+  </si>
+  <si>
+    <t>+998996354150</t>
+  </si>
+  <si>
+    <t>Navoi</t>
+  </si>
+  <si>
+    <t>Karmana tumani</t>
   </si>
 </sst>
 </file>
@@ -215,6 +227,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/employees.xlsx
+++ b/src/main/resources/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>fgvbdfbg</t>
   </si>
@@ -90,6 +90,54 @@
   </si>
   <si>
     <t>Karmana tumani</t>
+  </si>
+  <si>
+    <t>Машарип</t>
+  </si>
+  <si>
+    <t>+998933104150</t>
+  </si>
+  <si>
+    <t>Xorazm</t>
+  </si>
+  <si>
+    <t>Urganch tumani</t>
+  </si>
+  <si>
+    <t>Va boshqalar ??</t>
+  </si>
+  <si>
+    <t>Вовлоа</t>
+  </si>
+  <si>
+    <t>+998906555475</t>
+  </si>
+  <si>
+    <t>30-45</t>
+  </si>
+  <si>
+    <t>Рврытво</t>
+  </si>
+  <si>
+    <t>+998905014150</t>
+  </si>
+  <si>
+    <t>Urganch shahri</t>
+  </si>
+  <si>
+    <t>Hsgsj</t>
+  </si>
+  <si>
+    <t>+998900076666</t>
+  </si>
+  <si>
+    <t>Шамшодман</t>
+  </si>
+  <si>
+    <t>881811144</t>
+  </si>
+  <si>
+    <t>Peshku tumani</t>
   </si>
 </sst>
 </file>
@@ -256,6 +304,151 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/employees.xlsx
+++ b/src/main/resources/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>fgvbdfbg</t>
   </si>
@@ -138,6 +138,120 @@
   </si>
   <si>
     <t>Peshku tumani</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>911357175</t>
+  </si>
+  <si>
+    <t>Xatirchi tumani</t>
+  </si>
+  <si>
+    <t>Dasturchi????‍??</t>
+  </si>
+  <si>
+    <t>Hqjs</t>
+  </si>
+  <si>
+    <t>90 123 4567</t>
+  </si>
+  <si>
+    <t>Chilonzor tumani</t>
+  </si>
+  <si>
+    <t>Menejer??</t>
+  </si>
+  <si>
+    <t>Ghds</t>
+  </si>
+  <si>
+    <t>906543268</t>
+  </si>
+  <si>
+    <t>Shafyor ??</t>
+  </si>
+  <si>
+    <t>Tygl</t>
+  </si>
+  <si>
+    <t>906785431</t>
+  </si>
+  <si>
+    <t>Tikuvchi ??</t>
+  </si>
+  <si>
+    <t>Shox</t>
+  </si>
+  <si>
+    <t>Olmazor tumani</t>
+  </si>
+  <si>
+    <t>Shamsiddin</t>
+  </si>
+  <si>
+    <t>+998993021188</t>
+  </si>
+  <si>
+    <t>Sdf</t>
+  </si>
+  <si>
+    <t>905678765</t>
+  </si>
+  <si>
+    <t>Shaxzod</t>
+  </si>
+  <si>
+    <t>94 3743777</t>
+  </si>
+  <si>
+    <t>Uchtepe tumani</t>
+  </si>
+  <si>
+    <t>Uy ishlari ??</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>Sirdaryo</t>
+  </si>
+  <si>
+    <t>Xovos tumani</t>
+  </si>
+  <si>
+    <t>Mohi</t>
+  </si>
+  <si>
+    <t>945678909</t>
+  </si>
+  <si>
+    <t>Sayxunobod tumani</t>
+  </si>
+  <si>
+    <t>Oʻtkir</t>
+  </si>
+  <si>
+    <t>777777777</t>
+  </si>
+  <si>
+    <t>Toshkent viloyati</t>
+  </si>
+  <si>
+    <t>Parkent tumani</t>
+  </si>
+  <si>
+    <t>gyujh</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>Asaka tumani</t>
+  </si>
+  <si>
+    <t>Dala ishlari??</t>
   </si>
 </sst>
 </file>
@@ -449,6 +563,354 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/employees.xlsx
+++ b/src/main/resources/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
   <si>
     <t>fgvbdfbg</t>
   </si>
@@ -252,6 +252,129 @@
   </si>
   <si>
     <t>Dala ishlari??</t>
+  </si>
+  <si>
+    <t>Laziz</t>
+  </si>
+  <si>
+    <t>991188203</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>Samarqand shahri</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Namangan</t>
+  </si>
+  <si>
+    <t>Uychi tumani</t>
+  </si>
+  <si>
+    <t>Qa</t>
+  </si>
+  <si>
+    <t>768900000</t>
+  </si>
+  <si>
+    <t>Shirin shahri</t>
+  </si>
+  <si>
+    <t>MardikorⓂ️</t>
+  </si>
+  <si>
+    <t>Vv</t>
+  </si>
+  <si>
+    <t>555555555</t>
+  </si>
+  <si>
+    <t>Surxondaryo</t>
+  </si>
+  <si>
+    <t>Uzun tumani</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>223334455</t>
+  </si>
+  <si>
+    <t>Mirzo Ulugbek tumani</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>556667777</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>111223344</t>
+  </si>
+  <si>
+    <t>Yuqori Chirchiq tumani</t>
+  </si>
+  <si>
+    <t>Oybek</t>
+  </si>
+  <si>
+    <t>Payariq tumani</t>
+  </si>
+  <si>
+    <t>Habibullo</t>
+  </si>
+  <si>
+    <t>+998994500617</t>
+  </si>
+  <si>
+    <t>Navoi shahri</t>
+  </si>
+  <si>
+    <t>Шухратжон</t>
+  </si>
+  <si>
+    <t>94 528 18 07</t>
+  </si>
+  <si>
+    <t>Yakkasaroy tumani</t>
+  </si>
+  <si>
+    <t>Qashqadaryo</t>
+  </si>
+  <si>
+    <t>Guzor tumani</t>
+  </si>
+  <si>
+    <t>Shoxrux</t>
+  </si>
+  <si>
+    <t>Bektemir tumani</t>
+  </si>
+  <si>
+    <t>3D Max designer  ??</t>
+  </si>
+  <si>
+    <t>Sss</t>
+  </si>
+  <si>
+    <t>+998914392135</t>
+  </si>
+  <si>
+    <t>Yunusobod tumani</t>
+  </si>
+  <si>
+    <t>Oshpaz????‍??</t>
   </si>
 </sst>
 </file>
@@ -911,6 +1034,470 @@
         <v>16</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/employees.xlsx
+++ b/src/main/resources/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="103">
   <si>
     <t>Shoxruh</t>
   </si>
@@ -236,18 +236,12 @@
     <t>MardikorⓂ️</t>
   </si>
   <si>
-    <t>Gjj</t>
-  </si>
-  <si>
-    <t>+998944951799</t>
+    <t>Shdbdhd</t>
   </si>
   <si>
     <t>Va boshqalar  ??</t>
   </si>
   <si>
-    <t>Shdbdhd</t>
-  </si>
-  <si>
     <t>Toshkent viloyati</t>
   </si>
   <si>
@@ -267,6 +261,66 @@
   </si>
   <si>
     <t>Yangi Hayot tumani</t>
+  </si>
+  <si>
+    <t>Asilbek Olimov</t>
+  </si>
+  <si>
+    <t>+998995349484</t>
+  </si>
+  <si>
+    <t>Andijon</t>
+  </si>
+  <si>
+    <t>Izboskan tumani</t>
+  </si>
+  <si>
+    <t>Djfjdjdk</t>
+  </si>
+  <si>
+    <t>+998881629696</t>
+  </si>
+  <si>
+    <t>MUKADDAS</t>
+  </si>
+  <si>
+    <t>+998981883378</t>
+  </si>
+  <si>
+    <t>Sergeli tumani</t>
+  </si>
+  <si>
+    <t>Buxgalter??</t>
+  </si>
+  <si>
+    <t>Mirobod tumani</t>
+  </si>
+  <si>
+    <t>Bekobod tumani</t>
+  </si>
+  <si>
+    <t>Farmasevt????‍??</t>
+  </si>
+  <si>
+    <t>Sadoqat</t>
+  </si>
+  <si>
+    <t>+998946015396</t>
+  </si>
+  <si>
+    <t>++998900973011</t>
+  </si>
+  <si>
+    <t>Toshkent tumani</t>
+  </si>
+  <si>
+    <t>+14793632978</t>
+  </si>
+  <si>
+    <t>Muhim emas</t>
+  </si>
+  <si>
+    <t>SMM mutaxassisi ??‍??</t>
   </si>
 </sst>
 </file>
@@ -989,13 +1043,13 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
@@ -1004,39 +1058,39 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
@@ -1044,16 +1098,16 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
@@ -1062,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
         <v>8</v>
@@ -1073,31 +1127,31 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
       </c>
       <c r="I28" t="s">
         <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1108,25 +1162,25 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1137,19 +1191,19 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
         <v>30</v>
@@ -1160,31 +1214,292 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
         <v>30</v>
       </c>
-      <c r="J31" t="s">
-        <v>8</v>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
